--- a/biology/Botanique/Zenkeria/Zenkeria.xlsx
+++ b/biology/Botanique/Zenkeria/Zenkeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Zenkeria  est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire de l'Asie du Sud, qui comprend cinq espèces.
 Ce sont des plantes herbacées vivaces, aux tiges (chaumes) décombantes, pouvant de 60 à 130 cm de long, et s'enracinant au niveau des nœuds inférieurs. L'inflorescence est une panicule ouverte.
 Étymologie
-Le nom générique « Zenkeria » est un hommage au botaniste allemand Jonathan Carl Zenker (1799–1837)[2].
+Le nom générique « Zenkeria » est un hommage au botaniste allemand Jonathan Carl Zenker (1799–1837).
 Ne pas confondre avec 
 Zenkeria Rchb. (1841), synonyme de Parmentiera DC (Bignoniaceae)
 Zenkeria Arn. (1838), synonyme de Apuleia Mart. (Fabaceae).
@@ -517,9 +529,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2017) :
 Zenkeria elegans Trin. (1837)
 Zenkeria jainii N.C.Nair, Sreek. &amp; V.J.Nair (1981)
 Zenkeria obtusiflora (Thwaites) Benth., J. Linn. Soc. (1881)
